--- a/week02/data_analytics_student_machine_assignments.xlsx
+++ b/week02/data_analytics_student_machine_assignments.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\Dropbox\CCAC\DAT-201\dat_201_sp20\week02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csheldon-hess\Dropbox\CCAC\DAT-201\dat_201_sp20\week02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8CDC82-6F65-4499-84BE-7D5ACD4C12DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="330" windowWidth="11920" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="330" windowWidth="11925" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +65,6 @@
     <t>data-analytics-stu13</t>
   </si>
   <si>
-    <t>NetID</t>
-  </si>
-  <si>
     <t>Assigned VM</t>
   </si>
   <si>
@@ -106,14 +102,25 @@
   </si>
   <si>
     <t>(reserved)</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,12 +144,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,132 +448,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>